--- a/07_振り返り/メトリクス評価.xlsx
+++ b/07_振り返り/メトリクス評価.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\miniProject\07_振り返り\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84633667-2F3B-4DEA-B961-40567C5A9215}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6393BEB6-AE5C-42B1-BDA4-54921670807A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5AED78DE-BB39-4A55-9345-984B64B1719F}"/>
   </bookViews>
@@ -266,16 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メソッドの際クロマチック数</t>
-    <rPh sb="5" eb="6">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クラス中のメソッドの凝集性欠如の度合い</t>
     <rPh sb="3" eb="4">
       <t>チュウ</t>
@@ -339,6 +329,13 @@
     <t>成功率</t>
     <rPh sb="0" eb="3">
       <t>セイコウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドのサイクロマチック数</t>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -733,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F451FE-1E2C-4E55-B053-BDC17E137E04}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -774,7 +771,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -785,31 +782,31 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
@@ -912,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -935,7 +932,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -974,12 +971,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -995,15 +992,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1187,6 +1175,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A956D4E-321F-4DA9-A044-D4290BDE4640}">
   <ds:schemaRefs>
@@ -1197,14 +1194,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4C2330-8D4C-4D17-9621-FF95C9F65F86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA44016-4D11-4077-8E5F-D401A505AAD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1220,4 +1209,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4C2330-8D4C-4D17-9621-FF95C9F65F86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>